--- a/input_spreadsheets/Tanzania/regions/InputForCode_Dar_es_Salaam.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Dar_es_Salaam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5BE4C-4A13-654E-88C9-5E38CCC17219}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1B3ECC91-3B2B-A54D-8AC8-614E46238F10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -4206,7 +4206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -6474,13 +6474,13 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8848,38 +8848,38 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="153" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="153" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="153"/>
+    <col min="1" max="1" width="17.5" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="152" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="151" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="155">
+      <c r="B2" s="154">
         <v>920712.72727272729</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13997,7 +13997,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14020,7 +14020,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="151"/>
+      <c r="B3" s="155"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14042,7 +14042,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="151"/>
+      <c r="B4" s="155"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14064,7 +14064,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14087,7 +14087,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="151"/>
+      <c r="B6" s="155"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14108,7 +14108,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="151"/>
+      <c r="B7" s="155"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14129,7 +14129,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14152,7 +14152,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="151"/>
+      <c r="B9" s="155"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14173,7 +14173,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="151"/>
+      <c r="B10" s="155"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14194,7 +14194,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14217,7 +14217,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="151"/>
+      <c r="B12" s="155"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14238,7 +14238,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="151"/>
+      <c r="B13" s="155"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14259,7 +14259,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14282,7 +14282,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="151"/>
+      <c r="B15" s="155"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14303,7 +14303,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="151"/>
+      <c r="B16" s="155"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14357,7 +14357,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14380,7 +14380,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="151"/>
+      <c r="B20" s="155"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14401,7 +14401,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="151"/>
+      <c r="B21" s="155"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14422,7 +14422,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14445,7 +14445,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="151"/>
+      <c r="B23" s="155"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14466,7 +14466,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="151"/>
+      <c r="B24" s="155"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14487,7 +14487,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14510,7 +14510,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="151"/>
+      <c r="B26" s="155"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14531,7 +14531,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="151"/>
+      <c r="B27" s="155"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14552,7 +14552,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14575,7 +14575,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="151"/>
+      <c r="B29" s="155"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14596,7 +14596,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="151"/>
+      <c r="B30" s="155"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14617,7 +14617,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14640,7 +14640,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="151"/>
+      <c r="B32" s="155"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14661,7 +14661,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="151"/>
+      <c r="B33" s="155"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14708,7 +14708,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14731,7 +14731,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="151"/>
+      <c r="B37" s="155"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14752,7 +14752,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="151"/>
+      <c r="B38" s="155"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14774,7 +14774,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14797,7 +14797,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="151"/>
+      <c r="B40" s="155"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14818,7 +14818,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="151"/>
+      <c r="B41" s="155"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14839,7 +14839,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14862,7 +14862,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="151"/>
+      <c r="B43" s="155"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14883,7 +14883,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="151"/>
+      <c r="B44" s="155"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14904,7 +14904,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14927,7 +14927,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="151"/>
+      <c r="B46" s="155"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14948,7 +14948,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="151"/>
+      <c r="B47" s="155"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14969,7 +14969,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14992,7 +14992,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="151"/>
+      <c r="B49" s="155"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15013,7 +15013,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="151"/>
+      <c r="B50" s="155"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15058,11 +15058,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15073,6 +15068,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -27831,8 +27831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28080,9 +28080,7 @@
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="90" t="s">
-        <v>161</v>
-      </c>
+      <c r="B39" s="90"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Dar_es_Salaam.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Dar_es_Salaam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1B3ECC91-3B2B-A54D-8AC8-614E46238F10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AC24A3AF-310F-0344-B366-86749A536AA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4206,7 +4206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -25340,8 +25340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25443,7 +25443,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="125">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C7" s="147">
         <v>0.95</v>
@@ -27831,8 +27831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28003,7 +28003,9 @@
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="90"/>
+      <c r="B26" s="90" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Dar_es_Salaam.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Dar_es_Salaam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FA2DEC2E-976C-7848-AA73-B1A8E779ADBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E808233A-0397-8749-BD5D-2CCE0CC4180D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3420" yWindow="-18380" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -15004,6 +15004,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15014,11 +15019,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25446,7 +25446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
@@ -26804,8 +26804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27824,7 +27824,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>IYCF 1</v>
@@ -27832,9 +27832,14 @@
       <c r="B97" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="23"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="23">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
@@ -27844,7 +27849,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 2</v>
@@ -27854,7 +27859,7 @@
       </c>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
@@ -27864,7 +27869,7 @@
       </c>
       <c r="C100" s="23"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 3</v>
@@ -27874,7 +27879,7 @@
       </c>
       <c r="C101" s="23"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="155" t="s">
         <v>274</v>
       </c>
@@ -27883,7 +27888,7 @@
       </c>
       <c r="C102" s="158"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="155" t="s">
         <v>274</v>
       </c>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Dar_es_Salaam.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Dar_es_Salaam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E808233A-0397-8749-BD5D-2CCE0CC4180D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0A195C0D-C71A-144A-AAD2-19D58ED97135}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3420" yWindow="-18380" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3420" yWindow="-18380" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -15004,11 +15004,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15019,6 +15014,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15254,8 +15254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15369,8 +15369,8 @@
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D8">
-        <v>10.49</v>
+      <c r="D8" s="89">
+        <v>3.78</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -15384,8 +15384,8 @@
         <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D9">
-        <v>10.49</v>
+      <c r="D9" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -15399,8 +15399,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D10">
-        <v>10.49</v>
+      <c r="D10" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -15414,8 +15414,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11">
-        <v>10.49</v>
+      <c r="D11" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -15429,8 +15429,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D12">
-        <v>10.49</v>
+      <c r="D12" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -26804,7 +26804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
